--- a/ResultadoEleicoesDistritos/R. A. AÇORES_LAJES DO PICO.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_LAJES DO PICO.xlsx
@@ -597,25 +597,25 @@
         <v>1344</v>
       </c>
       <c r="H2" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J2" t="n">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -627,34 +627,34 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T2" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
